--- a/sorare/sorare_common.xlsx
+++ b/sorare/sorare_common.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">JAYSON TATUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAURI MARKKANEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAI GILGEOUS-ALEXANDER</t>
   </si>
 </sst>
 </file>
@@ -217,10 +223,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +253,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,10 +261,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,10 +272,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,10 +283,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,10 +294,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,10 +305,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,10 +316,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,10 +327,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,7 +341,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,10 +349,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,7 +363,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,10 +371,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,7 +385,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,10 +393,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,10 +404,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,10 +415,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>28</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,10 +426,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,7 +440,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,10 +459,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,10 +492,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,10 +514,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,24 +525,24 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>30</v>
       </c>
@@ -544,10 +550,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
@@ -555,7 +561,29 @@
         <v>47</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/sorare/sorare_common.xlsx
+++ b/sorare/sorare_common.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -91,9 +91,6 @@
     <t xml:space="preserve">AARON HOLIDAY</t>
   </si>
   <si>
-    <t xml:space="preserve">OMER YURTSEVEN</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRYN FORBES</t>
   </si>
   <si>
@@ -122,6 +119,30 @@
   </si>
   <si>
     <t xml:space="preserve">SHAI GILGEOUS-ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMAR DEROZAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAWHI LEONARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIKAL BRIDGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISH WAINRIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSHAE BRISSETT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORGUI DIENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVONTE GRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANT WILLIAMS</t>
   </si>
 </sst>
 </file>
@@ -223,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,7 +274,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,10 +293,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,10 +304,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,7 +315,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -305,7 +326,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>16</v>
@@ -316,10 +337,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,10 +348,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,10 +359,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,10 +370,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,10 +381,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,10 +392,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,10 +403,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,7 +414,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>20</v>
@@ -404,10 +425,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,10 +436,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,10 +447,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,10 +458,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,10 +491,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,10 +502,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,10 +513,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,10 +524,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,10 +535,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,10 +546,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,10 +557,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,10 +568,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,32 +579,109 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>44</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
